--- a/Ubungen/Grundpraktikum/C1/Versuch 31/Durchfuhrung/Isotherm T=46.1.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 31/Durchfuhrung/Isotherm T=46.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 31\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF479A-D672-403B-9366-D6FDAC39A407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEC29D5-941A-4739-9C51-5546145EEEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="1">
   <si>
     <t>Gas</t>
   </si>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -379,25 +379,143 @@
       <c r="A2">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>10.25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.5</v>
       </c>
+      <c r="B3">
+        <v>12.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>15.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.5</v>
       </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
+      </c>
+      <c r="B6">
+        <v>26.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.9</v>
+      </c>
+      <c r="B7">
+        <v>28.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.8</v>
+      </c>
+      <c r="B8">
+        <v>30.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.6</v>
+      </c>
+      <c r="B10">
+        <v>33.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.25</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
